--- a/company_data.xlsx
+++ b/company_data.xlsx
@@ -481,38 +481,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gibbs Inc</t>
+          <t>Myers Ltd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>John Romero</t>
+          <t>Samuel Lee</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lake Wandafort</t>
+          <t>New Ambermouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8421</v>
+        <v>6183</v>
       </c>
       <c r="G2" t="n">
-        <v>7917896867.33</v>
+        <v>3050265494.56</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://arnold.com/</t>
+          <t>http://www.peck.com/</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -532,47 +532,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Webb Group</t>
+          <t>Mcintosh-Blake</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jeffrey Jacobs</t>
+          <t>Tiffany Schroeder</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>New Brianna</t>
+          <t>North Jillborough</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>365</v>
+        <v>3503</v>
       </c>
       <c r="G3" t="n">
-        <v>4133992206.82</v>
+        <v>6028466590.04</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>http://www.baker-miller.info/</t>
+          <t>http://www.beck.info/</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shaw-Nelson</t>
+          <t>Fuentes-Cross</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -593,28 +593,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cindy Baker</t>
+          <t>Julie Allen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>South David</t>
+          <t>West Anthonybury</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1129</v>
+        <v>6844</v>
       </c>
       <c r="G4" t="n">
-        <v>5828295651.64</v>
+        <v>7650899285.55</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>http://king.com/</t>
+          <t>https://keith.org/</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -634,47 +634,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wright-Jackson</t>
+          <t>Ford, Vazquez and Kaiser</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Julia Ortiz</t>
+          <t>Adrian Thomas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rebeccatown</t>
+          <t>North Joseburgh</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3730</v>
+        <v>2998</v>
       </c>
       <c r="G5" t="n">
-        <v>2398936823.93</v>
+        <v>8235001252.78</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://martin.com/</t>
+          <t>https://shaffer.com/</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gallegos Inc</t>
+          <t>Morgan Ltd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Erin Rowe</t>
+          <t>Jennifer Lara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jenniferville</t>
+          <t>New Joshua</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8882</v>
+        <v>4321</v>
       </c>
       <c r="G6" t="n">
-        <v>9332639336.690001</v>
+        <v>401986441.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>http://dorsey.com/</t>
+          <t>http://www.thomas.com/</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -736,89 +736,89 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Strickland-Campbell</t>
+          <t>Jordan Inc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Leah Shea</t>
+          <t>Tiffany Tran</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ricemouth</t>
+          <t>Rubenview</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3376</v>
+        <v>3070</v>
       </c>
       <c r="G7" t="n">
-        <v>2763010039.33</v>
+        <v>9127013615.309999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>http://miller.com/</t>
+          <t>https://www.jones.com/</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gray, Newton and Gardner</t>
+          <t>Reyes-Turner</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kimberly Wright</t>
+          <t>Destiny Lopez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Meganshire</t>
+          <t>Roberthaven</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8703</v>
+        <v>5407</v>
       </c>
       <c r="G8" t="n">
-        <v>1386916593.34</v>
+        <v>5780014170.99</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>http://hicks.info/</t>
+          <t>http://www.moore-atkinson.com/</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -838,38 +838,38 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phillips, Becker and Howard</t>
+          <t>Doyle, Donovan and Thompson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Barbara Ruiz</t>
+          <t>Joseph White</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Andrewton</t>
+          <t>West Monica</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7398</v>
+        <v>4731</v>
       </c>
       <c r="G9" t="n">
-        <v>7037237191.84</v>
+        <v>3235431797.29</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>http://brown-benson.biz/</t>
+          <t>http://randall.com/</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -889,58 +889,58 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fox, Mooney and Hoffman</t>
+          <t>Johnson-Miller</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Russell Hawkins</t>
+          <t>Michael Ponce</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Port Andrea</t>
+          <t>New Jerry</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4753</v>
+        <v>7313</v>
       </c>
       <c r="G10" t="n">
-        <v>227779813.62</v>
+        <v>9257785416.93</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>http://lee.info/</t>
+          <t>https://www.johnson-brown.biz/</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Miller, Sims and Mooney</t>
+          <t>Norman Ltd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -950,150 +950,150 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jennifer Russell</t>
+          <t>Nancy Sullivan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Port Emmaville</t>
+          <t>South Eric</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9099</v>
+        <v>6322</v>
       </c>
       <c r="G11" t="n">
-        <v>4110062072.52</v>
+        <v>1593096667.93</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.griffith.com/</t>
+          <t>https://molina.com/</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Green and Sons</t>
+          <t>Jones, Moore and Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael Ferguson</t>
+          <t>Brian Andrade</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>West Edwin</t>
+          <t>Rangeltown</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9216</v>
+        <v>6832</v>
       </c>
       <c r="G12" t="n">
-        <v>978929283.22</v>
+        <v>4205891943.01</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>http://www.hernandez-rodriguez.com/</t>
+          <t>http://davis.com/</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Patterson-Roach</t>
+          <t>Rodriguez-Fitzpatrick</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Joshua Bailey</t>
+          <t>Selena Miller</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lake Raymond</t>
+          <t>North Arthurmouth</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7817</v>
+        <v>2086</v>
       </c>
       <c r="G13" t="n">
-        <v>454019123.56</v>
+        <v>2914523297.39</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.johnston-acosta.org/</t>
+          <t>http://weber-crawford.com/</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Adams-Bauer</t>
+          <t>Martin Inc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1103,48 +1103,48 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kyle Delgado</t>
+          <t>Jose Lutz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>South Kristinstad</t>
+          <t>New Jessicamouth</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2450</v>
+        <v>5640</v>
       </c>
       <c r="G14" t="n">
-        <v>8633913040.959999</v>
+        <v>6866989466.02</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.rich.com/</t>
+          <t>https://larsen-watson.com/</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rodgers, Cooper and Harris</t>
+          <t>Gonzalez-Parker</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1154,28 +1154,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sarah Jordan</t>
+          <t>Brittany Hatfield</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Catherineport</t>
+          <t>East Johnburgh</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6116</v>
+        <v>3919</v>
       </c>
       <c r="G15" t="n">
-        <v>8566436865.6</v>
+        <v>6377634062.42</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>http://www.adkins-smith.biz/</t>
+          <t>http://www.moore-cobb.com/</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1184,58 +1184,58 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Martinez-Herrera</t>
+          <t>Carter, White and Cole</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Amanda Macias</t>
+          <t>Donna Hardin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thomasfort</t>
+          <t>Nicholaschester</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7961</v>
+        <v>3400</v>
       </c>
       <c r="G16" t="n">
-        <v>1013480066.63</v>
+        <v>1740319407.95</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>http://www.winters.com/</t>
+          <t>http://pace.biz/</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1246,38 +1246,38 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sims Ltd</t>
+          <t>Parker-Payne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Natalie Peterson</t>
+          <t>Jennifer Rogers</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lake Mitchell</t>
+          <t>Webstertown</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8364</v>
+        <v>5968</v>
       </c>
       <c r="G17" t="n">
-        <v>386928891.53</v>
+        <v>5928289356.82</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>http://castro.biz/</t>
+          <t>http://hall-mccann.com/</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1286,49 +1286,49 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Johnson Inc</t>
+          <t>Frost-Parker</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Colin James</t>
+          <t>Mark Jensen III</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>South Stevenburgh</t>
+          <t>Lake Robertstad</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4951</v>
+        <v>3106</v>
       </c>
       <c r="G18" t="n">
-        <v>9160838057.99</v>
+        <v>107290367.47</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>http://adams.biz/</t>
+          <t>http://www.flores-moran.com/</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1337,18 +1337,18 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Serrano-Frank</t>
+          <t>Gonzales LLC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1358,88 +1358,88 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Victoria Frank</t>
+          <t>Lindsey Wells</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>North Branditown</t>
+          <t>New David</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3210</v>
+        <v>1487</v>
       </c>
       <c r="G19" t="n">
-        <v>3430389100.2</v>
+        <v>1714687757.49</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>http://www.torres.org/</t>
+          <t>https://www.hayes-haley.com/</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Smith LLC</t>
+          <t>Gardner-Weber</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Keith Davis</t>
+          <t>Jose Jacobs</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>South Christine</t>
+          <t>North Kristen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8229</v>
+        <v>6529</v>
       </c>
       <c r="G20" t="n">
-        <v>3179672142.73</v>
+        <v>2421897084.26</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.lee.info/</t>
+          <t>http://gray.com/</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1450,98 +1450,98 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Newman-Ramos</t>
+          <t>Greene, Johnson and Keller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kiara Holland</t>
+          <t>Tina Hall</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lake Davidbury</t>
+          <t>Millermouth</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7840</v>
+        <v>6122</v>
       </c>
       <c r="G21" t="n">
-        <v>6289687836.92</v>
+        <v>9863359031.190001</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://williams.com/</t>
+          <t>http://www.black-arroyo.info/</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Thompson-Carter</t>
+          <t>Willis-Morris</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Christine Burton</t>
+          <t>Angela Moody</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>New Maria</t>
+          <t>North Sarah</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8176</v>
+        <v>1415</v>
       </c>
       <c r="G22" t="n">
-        <v>6547732760.1</v>
+        <v>5360931704.29</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://humphrey-olson.com/</t>
+          <t>https://www.kelly-williams.info/</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wood Ltd</t>
+          <t>Nelson-Booth</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1562,37 +1562,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>John Gallegos</t>
+          <t>Tracy Hayes</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Donovanside</t>
+          <t>Pierceville</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7343</v>
+        <v>5111</v>
       </c>
       <c r="G23" t="n">
-        <v>2230599432.29</v>
+        <v>8559044123.8</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://bennett-thompson.com/</t>
+          <t>https://www.smith-webb.com/</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1603,47 +1603,47 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shea LLC</t>
+          <t>Daniels-Wong</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hannah Brady</t>
+          <t>Mrs. Angela Peters</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lake Davidberg</t>
+          <t>New Stuart</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>391</v>
+        <v>3026</v>
       </c>
       <c r="G24" t="n">
-        <v>5322272880.93</v>
+        <v>1332637482.35</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>http://www.oliver.com/</t>
+          <t>https://www.buck.com/</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1654,47 +1654,47 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Murray PLC</t>
+          <t>Chan Group</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eric Chapman</t>
+          <t>Richard Charles MD</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Port Paul</t>
+          <t>Wrightmouth</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8657</v>
+        <v>8124</v>
       </c>
       <c r="G25" t="n">
-        <v>1279433290.34</v>
+        <v>7686650814.46</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.lewis.info/</t>
+          <t>https://www.douglas-roberts.org/</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1705,47 +1705,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Robinson and Sons</t>
+          <t>Thomas-Smith</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>John Proctor</t>
+          <t>Austin Harris</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>New Cheryl</t>
+          <t>Mooretown</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5638</v>
+        <v>1347</v>
       </c>
       <c r="G26" t="n">
-        <v>9633070008.07</v>
+        <v>9263937910.27</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>http://walker-moses.com/</t>
+          <t>http://www.baker-vasquez.info/</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1756,47 +1756,47 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dominguez Ltd</t>
+          <t>Johnson-King</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Alejandra Miller</t>
+          <t>Emily Bond</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lake Richardport</t>
+          <t>Lake Scottmouth</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5907</v>
+        <v>9100</v>
       </c>
       <c r="G27" t="n">
-        <v>8908013772.709999</v>
+        <v>227463689.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ryan.com/</t>
+          <t>http://allen-goodman.com/</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1807,98 +1807,98 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Espinoza, Smith and Oconnell</t>
+          <t>Lee, Santiago and Roberson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bryce Conway</t>
+          <t>Diana Hickman</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>South Justin</t>
+          <t>Cameronburgh</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>408</v>
+        <v>7702</v>
       </c>
       <c r="G28" t="n">
-        <v>4779025121.43</v>
+        <v>3655261011.99</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>http://clements.com/</t>
+          <t>http://anderson.com/</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Douglas Ltd</t>
+          <t>Wright, Davila and Adams</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Angelica Rogers</t>
+          <t>William Compton IV</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Crossburgh</t>
+          <t>Smithville</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5849</v>
+        <v>6803</v>
       </c>
       <c r="G29" t="n">
-        <v>8104561010.21</v>
+        <v>2444645182.31</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>http://www.lee-scott.com/</t>
+          <t>http://www.boyd-wilson.com/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Thompson Ltd</t>
+          <t>Rodriguez Group</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1919,28 +1919,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Brittney Yang</t>
+          <t>Marie Phillips</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tonyamouth</t>
+          <t>Snyderstad</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3239</v>
+        <v>5019</v>
       </c>
       <c r="G30" t="n">
-        <v>9847573525.74</v>
+        <v>1515569949.81</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>http://www.murphy-webster.com/</t>
+          <t>http://www.martinez.net/</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1960,38 +1960,38 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Washington-Gray</t>
+          <t>Foster-Schmidt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Michael Keith</t>
+          <t>Laura Barnes</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Port Samanthaville</t>
+          <t>Lake Annamouth</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6474</v>
+        <v>8199</v>
       </c>
       <c r="G31" t="n">
-        <v>7344298368.65</v>
+        <v>3259032211.96</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>http://www.gibson.biz/</t>
+          <t>https://crawford.com/</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2000,18 +2000,18 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Foster PLC</t>
+          <t>Miller-Mckay</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2021,37 +2021,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Brian Perez</t>
+          <t>David Green</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>North Tammy</t>
+          <t>Jamieshire</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5026</v>
+        <v>1017</v>
       </c>
       <c r="G32" t="n">
-        <v>4118671255.09</v>
+        <v>2441270441.28</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://cruz.com/</t>
+          <t>https://baxter.com/</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2062,63 +2062,63 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Forbes, Kaufman and Wilson</t>
+          <t>Cobb Inc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Anthony Esparza</t>
+          <t>Michael Shannon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>East Derekstad</t>
+          <t>Lake David</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3423</v>
+        <v>2346</v>
       </c>
       <c r="G33" t="n">
-        <v>7650446461.28</v>
+        <v>571289869.17</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://morris.net/</t>
+          <t>https://www.weber.com/</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colon-Willis</t>
+          <t>Rodriguez, Dudley and Mitchell</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2128,43 +2128,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ronald Long</t>
+          <t>Daniel Roberts</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lake Angelatown</t>
+          <t>Jameshaven</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9002</v>
+        <v>1645</v>
       </c>
       <c r="G34" t="n">
-        <v>4209193762.67</v>
+        <v>1666420158.24</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.thomas.com/</t>
+          <t>http://cunningham.com/</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hill-Jackson</t>
+          <t>Schultz, Rice and Clark</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2174,28 +2174,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Debra King</t>
+          <t>Luis Bailey Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>East Michellemouth</t>
+          <t>East Jasonport</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3032</v>
+        <v>5556</v>
       </c>
       <c r="G35" t="n">
-        <v>6034616553.53</v>
+        <v>4736023205.19</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.norton-fisher.org/</t>
+          <t>https://www.hart.com/</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2215,38 +2215,38 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Montgomery PLC</t>
+          <t>Nelson Group</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Diana Stephens</t>
+          <t>Kimberly Mayo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lake John</t>
+          <t>Fosterfort</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2880</v>
+        <v>6855</v>
       </c>
       <c r="G36" t="n">
-        <v>4208548761.14</v>
+        <v>9361400325.719999</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://murphy.com/</t>
+          <t>http://vasquez.com/</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2255,18 +2255,18 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Snyder, Taylor and Paul</t>
+          <t>Lloyd-Hunter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2276,79 +2276,79 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bradley Howard</t>
+          <t>Cheryl Short</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Davidtown</t>
+          <t>Williamsbury</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8324</v>
+        <v>479</v>
       </c>
       <c r="G37" t="n">
-        <v>8242017705.61</v>
+        <v>6167189709.44</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://odom.info/</t>
+          <t>https://edwards.biz/</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Miller, Nielsen and Smith</t>
+          <t>Maxwell, Richardson and Schaefer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ryan Rich</t>
+          <t>Kevin Wolfe</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lake Williamburgh</t>
+          <t>Nicoleland</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>989</v>
+        <v>4773</v>
       </c>
       <c r="G38" t="n">
-        <v>9202970959.049999</v>
+        <v>2104265808.07</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://kennedy.info/</t>
+          <t>http://reyes.com/</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2357,109 +2357,109 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Smith Inc</t>
+          <t>Kim, Newman and Spencer</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jacob Strong</t>
+          <t>Barry Lopez</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Williamsberg</t>
+          <t>Deleonview</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1488</v>
+        <v>8595</v>
       </c>
       <c r="G39" t="n">
-        <v>5782018666.11</v>
+        <v>9463886316.07</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://williams.com/</t>
+          <t>http://www.davis-myers.com/</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Smith, Horne and Allen</t>
+          <t>Stanley Inc</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jennifer Lyons</t>
+          <t>Nancy Harper</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tinaview</t>
+          <t>Port Cindyburgh</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>261</v>
+        <v>8296</v>
       </c>
       <c r="G40" t="n">
-        <v>235291787.04</v>
+        <v>4940297275.45</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://cardenas-watson.info/</t>
+          <t>https://davis.biz/</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Reid-French</t>
+          <t>Walker, Williams and Baker</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2480,88 +2480,88 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tyler Hatfield</t>
+          <t>Christina Ruiz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lake Deborah</t>
+          <t>Krausebury</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1665</v>
+        <v>794</v>
       </c>
       <c r="G41" t="n">
-        <v>3696553309.24</v>
+        <v>8372429193.41</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://tran.com/</t>
+          <t>https://www.ramos.biz/</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Howard-Green</t>
+          <t>Richards, Gentry and Perry</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kevin Collins</t>
+          <t>Sean Rasmussen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>South Amy</t>
+          <t>Lake Kimberly</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1575</v>
+        <v>2637</v>
       </c>
       <c r="G42" t="n">
-        <v>9584434524.91</v>
+        <v>6185762722.52</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.davidson-estes.com/</t>
+          <t>http://www.walter.com/</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2572,47 +2572,47 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Reed-Stone</t>
+          <t>Mclaughlin-Swanson</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Gregory Webb DDS</t>
+          <t>Chloe Hebert</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>East Jefferyberg</t>
+          <t>North Lisa</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9318</v>
+        <v>4826</v>
       </c>
       <c r="G43" t="n">
-        <v>2426816555.51</v>
+        <v>8327289733</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>http://adams.com/</t>
+          <t>http://lopez.biz/</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2623,58 +2623,58 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bautista-Ortega</t>
+          <t>Miller, Young and Ray</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>James Wilson</t>
+          <t>Julia Welch</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Julieside</t>
+          <t>Lake Sheena</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1171</v>
+        <v>3402</v>
       </c>
       <c r="G44" t="n">
-        <v>5820528359.9</v>
+        <v>4769692162.96</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>http://www.brown.com/</t>
+          <t>https://www.willis-rivers.biz/</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Morris-Hobbs</t>
+          <t>Marshall-Thompson</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2684,79 +2684,79 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Teresa Ray</t>
+          <t>Brian Wheeler</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>West Lisaberg</t>
+          <t>Port Dana</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7880</v>
+        <v>3950</v>
       </c>
       <c r="G45" t="n">
-        <v>1091222449.93</v>
+        <v>2227429980.26</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>http://cameron.com/</t>
+          <t>https://www.hooper-jacobson.net/</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Johnson LLC</t>
+          <t>Hoover, Holloway and Dixon</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Laura Patterson</t>
+          <t>Denise Leon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Port Michaelborough</t>
+          <t>East Brittany</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8581</v>
+        <v>8030</v>
       </c>
       <c r="G46" t="n">
-        <v>6607535668.84</v>
+        <v>8895513157.25</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>http://cordova.com/</t>
+          <t>https://www.weiss-medina.com/</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2765,69 +2765,69 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hansen, Richards and Weber</t>
+          <t>Thompson Ltd</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Michelle May</t>
+          <t>Paul Welch</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Port Dale</t>
+          <t>Gillton</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5567</v>
+        <v>9165</v>
       </c>
       <c r="G47" t="n">
-        <v>7600200396.69</v>
+        <v>5395211849.81</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>http://www.brown.info/</t>
+          <t>https://wilson-collins.com/</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Reese, Koch and Cortez</t>
+          <t>White LLC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2837,37 +2837,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>John Marshall</t>
+          <t>Thomas Gross</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lake Amanda</t>
+          <t>Heatherchester</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4746</v>
+        <v>691</v>
       </c>
       <c r="G48" t="n">
-        <v>6914229689.93</v>
+        <v>2406795469.29</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://morgan.com/</t>
+          <t>https://trevino.com/</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2878,38 +2878,38 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Roberts Group</t>
+          <t>Webb Group</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Michael Mathews</t>
+          <t>Sandra Clayton</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Joanport</t>
+          <t>Teresastad</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1312</v>
+        <v>2899</v>
       </c>
       <c r="G49" t="n">
-        <v>1306393360.96</v>
+        <v>740174915.2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>http://davis.com/</t>
+          <t>http://www.willis-guerra.com/</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2918,58 +2918,58 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Williams and Sons</t>
+          <t>Torres-Smith</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nicole Roy</t>
+          <t>Keith Reilly</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>North Michaelmouth</t>
+          <t>Alisonside</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4294</v>
+        <v>669</v>
       </c>
       <c r="G50" t="n">
-        <v>4920515249.87</v>
+        <v>9949287457.99</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://austin-walsh.net/</t>
+          <t>http://hill.biz/</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2980,47 +2980,47 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brown Ltd</t>
+          <t>Jenkins-Bush</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Austin Kirk</t>
+          <t>Karen Ewing DDS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lake Steven</t>
+          <t>Peggyfurt</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3911</v>
+        <v>6795</v>
       </c>
       <c r="G51" t="n">
-        <v>6450251753.73</v>
+        <v>8491733111.35</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>http://brown-hooper.com/</t>
+          <t>https://www.thomas-owens.com/</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3031,43 +3031,43 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hernandez Group</t>
+          <t>Barnes Inc</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Barbara Reyes</t>
+          <t>Jeffrey Robertson</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Josetown</t>
+          <t>Nicholasview</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>9343</v>
+        <v>3182</v>
       </c>
       <c r="G52" t="n">
-        <v>373619585.14</v>
+        <v>8876651145.52</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.hester-stafford.net/</t>
+          <t>http://williamson.com/</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3082,47 +3082,47 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Austin Ltd</t>
+          <t>Rodriguez-Williams</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jason Smith</t>
+          <t>Justin Mitchell</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>West Randall</t>
+          <t>West Margaret</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7832</v>
+        <v>6565</v>
       </c>
       <c r="G53" t="n">
-        <v>6661293141.56</v>
+        <v>2067243618.97</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://lane.com/</t>
+          <t>http://www.vargas-best.com/</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3133,47 +3133,47 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hall, Gonzalez and Hodges</t>
+          <t>Smith-Guerrero</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Katherine Ortiz</t>
+          <t>Stephanie Espinoza</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sparksfort</t>
+          <t>East Ritachester</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>8521</v>
+        <v>8456</v>
       </c>
       <c r="G54" t="n">
-        <v>1899971954.64</v>
+        <v>9124152769.540001</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://adams.info/</t>
+          <t>https://www.hall.biz/</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3184,89 +3184,89 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Henderson and Sons</t>
+          <t>Sanders-Odom</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jane Sims</t>
+          <t>Victoria Huynh</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juliehaven</t>
+          <t>Rodrigueztown</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>8854</v>
+        <v>2306</v>
       </c>
       <c r="G55" t="n">
-        <v>9546875019.889999</v>
+        <v>1989424506.02</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>http://www.brooks-graham.info/</t>
+          <t>https://marks.com/</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Smith PLC</t>
+          <t>Wong-Cox</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Christian Harvey</t>
+          <t>Misty Freeman DDS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Port Taramouth</t>
+          <t>Gonzalezborough</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7773</v>
+        <v>7911</v>
       </c>
       <c r="G56" t="n">
-        <v>2105155845.39</v>
+        <v>5278516894.1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://mclaughlin.biz/</t>
+          <t>https://www.perez.biz/</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3275,58 +3275,58 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Murphy-Beasley</t>
+          <t>King LLC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Craig Ponce</t>
+          <t>Christina Smith</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>New Tina</t>
+          <t>Garciaburgh</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>871</v>
+        <v>6663</v>
       </c>
       <c r="G57" t="n">
-        <v>847993642.4299999</v>
+        <v>368904869.64</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>http://harding-buchanan.net/</t>
+          <t>https://www.welch.com/</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3337,58 +3337,58 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Edwards Inc</t>
+          <t>Bell, Armstrong and Benson</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Elizabeth Bright</t>
+          <t>Matthew Rowe</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>East Isaac</t>
+          <t>Lake Victoria</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2285</v>
+        <v>807</v>
       </c>
       <c r="G58" t="n">
-        <v>7205980054.56</v>
+        <v>3491923325.37</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>http://www.jones.net/</t>
+          <t>https://smith.com/</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Irwin-Crosby</t>
+          <t>Wilson-Marquez</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3398,130 +3398,130 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Marcia Smith</t>
+          <t>Joseph May</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Graymouth</t>
+          <t>East Cheryl</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3955</v>
+        <v>8720</v>
       </c>
       <c r="G59" t="n">
-        <v>4493604098.69</v>
+        <v>288544607.85</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>http://franco.biz/</t>
+          <t>https://stephenson.biz/</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ramirez and Sons</t>
+          <t>Green-Rogers</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Maria Johnson</t>
+          <t>Mrs. Allison Lucas</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>South Scottside</t>
+          <t>West Marcville</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6403</v>
+        <v>4691</v>
       </c>
       <c r="G60" t="n">
-        <v>1683356160.21</v>
+        <v>1620041022.97</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>http://henderson.com/</t>
+          <t>http://ford.net/</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Miller Inc</t>
+          <t>Leonard LLC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mark Lewis</t>
+          <t>Jackson Lewis</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jenkinsmouth</t>
+          <t>West Scottshire</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4719</v>
+        <v>1086</v>
       </c>
       <c r="G61" t="n">
-        <v>8240269950.9</v>
+        <v>2765420306.07</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.lane-williams.org/</t>
+          <t>https://www.castillo.info/</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Morse, Thompson and Ray</t>
+          <t>Olson-Moore</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3551,48 +3551,48 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Perry Young</t>
+          <t>Donald Obrien</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Danielstad</t>
+          <t>East Stacychester</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3075</v>
+        <v>8300</v>
       </c>
       <c r="G62" t="n">
-        <v>8752343265.620001</v>
+        <v>9129664842.08</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://nelson.com/</t>
+          <t>https://taylor.com/</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hensley-Nelson</t>
+          <t>Eaton PLC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3602,37 +3602,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kimberly Pace</t>
+          <t>Christopher May</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>New Anthony</t>
+          <t>West Lindsayhaven</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9750</v>
+        <v>8877</v>
       </c>
       <c r="G63" t="n">
-        <v>9912595739.65</v>
+        <v>5872816270.59</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://taylor.org/</t>
+          <t>https://www.barnes-campbell.com/</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3643,145 +3643,145 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Terry-Delgado</t>
+          <t>Lee, Huynh and Ashley</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Ashley Jackson</t>
+          <t>James Villarreal</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jenniferview</t>
+          <t>Lefort</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6455</v>
+        <v>6456</v>
       </c>
       <c r="G64" t="n">
-        <v>8233638377.49</v>
+        <v>2573373337.21</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>http://matthews.com/</t>
+          <t>http://thompson.com/</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Daniels, Garrett and Nunez</t>
+          <t>Scott-Johnson</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Michael Wilkinson</t>
+          <t>Amy Warren</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lake Katherine</t>
+          <t>Mariaside</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>322</v>
+        <v>4243</v>
       </c>
       <c r="G65" t="n">
-        <v>913909883.2</v>
+        <v>9007239552.879999</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.mcbride-wallace.com/</t>
+          <t>http://www.mitchell.com/</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cole PLC</t>
+          <t>Potter-Richardson</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Derek Mathis</t>
+          <t>Brenda Gordon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Peggyview</t>
+          <t>Matthewberg</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4327</v>
+        <v>3394</v>
       </c>
       <c r="G66" t="n">
-        <v>9162138568.74</v>
+        <v>8213825849.28</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.harrison.info/</t>
+          <t>https://kennedy-anderson.com/</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -3789,14 +3789,14 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gross-Bennett</t>
+          <t>Mendoza Inc</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3806,48 +3806,48 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Nancy Herman</t>
+          <t>Beth Cox</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Lake Stephanieton</t>
+          <t>Port Christopherberg</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5818</v>
+        <v>5676</v>
       </c>
       <c r="G67" t="n">
-        <v>9555320226.450001</v>
+        <v>1175482456.9</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://hill.biz/</t>
+          <t>https://jackson-mcdaniel.com/</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hopkins Inc</t>
+          <t>Browning PLC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3857,308 +3857,308 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Taylor Wells</t>
+          <t>Jack Hill</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>New Marcus</t>
+          <t>Johnsontown</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2322</v>
+        <v>9165</v>
       </c>
       <c r="G68" t="n">
-        <v>7065585121.31</v>
+        <v>3531620255.16</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.huffman.info/</t>
+          <t>http://gutierrez.com/</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Hopkins, Hayes and Lawson</t>
+          <t>Thomas, Bennett and Miranda</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Isaac Andrews</t>
+          <t>Karen Schroeder</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Rioston</t>
+          <t>South Summer</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>8665</v>
+        <v>3995</v>
       </c>
       <c r="G69" t="n">
-        <v>6990500130.37</v>
+        <v>8225697999.8</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://santos-anthony.info/</t>
+          <t>https://liu.biz/</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Buck-Lynch</t>
+          <t>Turner, Thompson and Williams</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mary Hendrix</t>
+          <t>Robert Burns</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Robertfurt</t>
+          <t>Port Christopher</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>88</v>
+        <v>5148</v>
       </c>
       <c r="G70" t="n">
-        <v>751335206.65</v>
+        <v>5355628755.37</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://wilson.com/</t>
+          <t>https://fuller.com/</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ellison Ltd</t>
+          <t>Anderson-Turner</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sara Sawyer</t>
+          <t>Summer Burns</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>West Christopherbury</t>
+          <t>Reyeshaven</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8510</v>
+        <v>8940</v>
       </c>
       <c r="G71" t="n">
-        <v>3741341165.54</v>
+        <v>3044612326.51</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://rivers.net/</t>
+          <t>http://www.marsh-white.com/</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Combs Group</t>
+          <t>Harris-Gonzales</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Elizabeth Perkins</t>
+          <t>Martha Vasquez</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Lake Joshua</t>
+          <t>Lake Maureenmouth</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4918</v>
+        <v>4831</v>
       </c>
       <c r="G72" t="n">
-        <v>9925201853.940001</v>
+        <v>2481799601.66</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ritter-anderson.com/</t>
+          <t>http://powell.com/</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Gonzalez Ltd</t>
+          <t>Richardson, Boyer and Avery</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Derrick Rodriguez</t>
+          <t>Amanda White DDS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>North Williemouth</t>
+          <t>Arnoldport</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>261</v>
+        <v>9922</v>
       </c>
       <c r="G73" t="n">
-        <v>7135529120.39</v>
+        <v>4002226150.45</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://hester-ortega.com/</t>
+          <t>http://diaz.com/</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Maldonado-Kelly</t>
+          <t>Brown-Williams</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4168,23 +4168,23 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Luis Cunningham</t>
+          <t>Crystal Morrison</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Anthonyborough</t>
+          <t>Port Craig</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2034</v>
+        <v>3626</v>
       </c>
       <c r="G74" t="n">
-        <v>2185906798.06</v>
+        <v>3661676139.05</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.frank.biz/</t>
+          <t>http://rivas-davis.com/</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4193,49 +4193,49 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Anderson, Ramirez and Williams</t>
+          <t>Morris, Webb and House</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Andrew Petersen</t>
+          <t>Garrett Allen</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Pierceton</t>
+          <t>North Benjamin</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5115</v>
+        <v>7375</v>
       </c>
       <c r="G75" t="n">
-        <v>2762282351.24</v>
+        <v>5746189979.25</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>http://www.cunningham.org/</t>
+          <t>http://clark.net/</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4244,58 +4244,58 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hunter, Mcdaniel and Miles</t>
+          <t>Briggs Group</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Samantha Brooks</t>
+          <t>James Chavez</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lake Christinamouth</t>
+          <t>North Robin</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5445</v>
+        <v>6533</v>
       </c>
       <c r="G76" t="n">
-        <v>3878271482.5</v>
+        <v>6702761286.62</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>http://garcia.com/</t>
+          <t>https://www.sims.com/</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -4306,38 +4306,38 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mitchell, Melton and Fowler</t>
+          <t>Lopez-Harris</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ryan Torres</t>
+          <t>Sharon Ward</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pricechester</t>
+          <t>Huffmanfurt</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1956</v>
+        <v>8510</v>
       </c>
       <c r="G77" t="n">
-        <v>9920755640.01</v>
+        <v>7847340219.1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>http://www.davis-vargas.info/</t>
+          <t>https://www.porter.com/</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4346,58 +4346,58 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ortiz-Adams</t>
+          <t>Holloway, Taylor and Robertson</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Joseph Guerra</t>
+          <t>Alexander Bowen</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hallmouth</t>
+          <t>Port Diane</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>421</v>
+        <v>2453</v>
       </c>
       <c r="G78" t="n">
-        <v>4742715352.69</v>
+        <v>9072402026.879999</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>http://lawson-spencer.com/</t>
+          <t>http://www.white.com/</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4408,47 +4408,47 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Clark, Bradley and Deleon</t>
+          <t>Martin Ltd</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Karen Phillips</t>
+          <t>Theresa Davila</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Staceyport</t>
+          <t>Jonesside</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7483</v>
+        <v>9770</v>
       </c>
       <c r="G79" t="n">
-        <v>8513667545.13</v>
+        <v>1370528056.39</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.aguilar-brown.com/</t>
+          <t>https://www.schmidt.com/</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4459,109 +4459,109 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Johnson PLC</t>
+          <t>Craig Ltd</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Alejandro Liu</t>
+          <t>Jennifer Bonilla</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>New Danielside</t>
+          <t>New Robert</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3502</v>
+        <v>9471</v>
       </c>
       <c r="G80" t="n">
-        <v>4275273207.39</v>
+        <v>9958146476.799999</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>http://espinoza-jackson.info/</t>
+          <t>https://www.benitez-mckay.com/</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tate, Carroll and Bennett</t>
+          <t>Camacho, Mckay and Smith</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dylan Wilson</t>
+          <t>Priscilla Williams</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Perkinsmouth</t>
+          <t>North Ann</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6492</v>
+        <v>6995</v>
       </c>
       <c r="G81" t="n">
-        <v>5814240077.93</v>
+        <v>5004444738.93</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://davis.com/</t>
+          <t>http://www.robinson-rasmussen.com/</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gray, Wilson and Perkins</t>
+          <t>Stanley-Park</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4571,37 +4571,37 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jesse Welch</t>
+          <t>Anthony Kennedy</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Jasonshire</t>
+          <t>Lake Christopherside</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4634</v>
+        <v>6059</v>
       </c>
       <c r="G82" t="n">
-        <v>361476118.23</v>
+        <v>221533006.72</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>http://www.erickson-smith.net/</t>
+          <t>https://hamilton.com/</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4612,98 +4612,98 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wiley, Eaton and Rodriguez</t>
+          <t>Marshall Inc</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>John Ross</t>
+          <t>Lisa Brown</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mendozahaven</t>
+          <t>Benitezmouth</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>7123</v>
+        <v>1645</v>
       </c>
       <c r="G83" t="n">
-        <v>6635276480.34</v>
+        <v>9338610614.030001</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>http://smith.com/</t>
+          <t>https://www.white-miller.com/</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Meadows and Sons</t>
+          <t>Parks, Navarro and Fernandez</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Courtney Velez</t>
+          <t>Kayla Hall</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Lake Reneeland</t>
+          <t>South Sydney</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8378</v>
+        <v>6578</v>
       </c>
       <c r="G84" t="n">
-        <v>5589345486.13</v>
+        <v>1696399085.3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>http://www.cooley-schroeder.biz/</t>
+          <t>http://www.dunn-davis.com/</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4714,58 +4714,58 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mitchell-Carr</t>
+          <t>Smith-Robinson</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Carol Wright</t>
+          <t>Shawn Strong</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>East Barbara</t>
+          <t>Jasonshire</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>7253</v>
+        <v>8945</v>
       </c>
       <c r="G85" t="n">
-        <v>380689847.53</v>
+        <v>543933144.72</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>http://shaffer.com/</t>
+          <t>http://www.perry.org/</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Black-Ramsey</t>
+          <t>Jones Inc</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4775,37 +4775,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jonathan Fleming MD</t>
+          <t>Geoffrey Stein</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lake Lisa</t>
+          <t>Stefaniechester</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>6584</v>
+        <v>8094</v>
       </c>
       <c r="G86" t="n">
-        <v>5117160985.4</v>
+        <v>4373134238.61</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://cross.net/</t>
+          <t>https://www.allen.com/</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -4816,47 +4816,47 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Howard-Houston</t>
+          <t>Sandoval LLC</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Carly Stafford</t>
+          <t>Mr. Jay Cantrell</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>New Shawn</t>
+          <t>Michaelhaven</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6294</v>
+        <v>3284</v>
       </c>
       <c r="G87" t="n">
-        <v>6723791565.29</v>
+        <v>4193374491.28</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.mccann-jennings.com/</t>
+          <t>http://www.evans.biz/</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -4867,47 +4867,47 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Thompson-Gray</t>
+          <t>Woodward PLC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Victoria Sherman</t>
+          <t>James Watson</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Danielshire</t>
+          <t>North Tylerhaven</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>7554</v>
+        <v>2672</v>
       </c>
       <c r="G88" t="n">
-        <v>1184103214.67</v>
+        <v>8246422819.67</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://baxter.com/</t>
+          <t>https://duran.info/</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4918,47 +4918,47 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Arias-Rangel</t>
+          <t>Williams, Booker and Porter</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Todd West</t>
+          <t>Jimmy Cervantes</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>West John</t>
+          <t>Cameronburgh</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9851</v>
+        <v>9820</v>
       </c>
       <c r="G89" t="n">
-        <v>9450162905.33</v>
+        <v>4496989151.8</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.richardson.net/</t>
+          <t>http://www.liu.biz/</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4969,47 +4969,47 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Terry, Williams and Parks</t>
+          <t>Hill, Foster and Poole</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Andrea Jennings</t>
+          <t>Kevin Reed</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>North Kimberly</t>
+          <t>West Bryan</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2840</v>
+        <v>2876</v>
       </c>
       <c r="G90" t="n">
-        <v>2932013308.34</v>
+        <v>3741963408.5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ramirez.net/</t>
+          <t>http://www.mcconnell.com/</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -5020,47 +5020,47 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Martinez Inc</t>
+          <t>Cox PLC</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Teresa Deleon</t>
+          <t>Gregory Reed</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Kathyville</t>
+          <t>Francisville</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4978</v>
+        <v>6443</v>
       </c>
       <c r="G91" t="n">
-        <v>6305491617.87</v>
+        <v>1199040936.88</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>http://franklin.org/</t>
+          <t>https://matthews-irwin.info/</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -5071,47 +5071,47 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Walker Ltd</t>
+          <t>Patterson-Castaneda</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>James Smith</t>
+          <t>Jordan York</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>East Makaylafurt</t>
+          <t>South Jennifer</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>427</v>
+        <v>3593</v>
       </c>
       <c r="G92" t="n">
-        <v>9218969223.139999</v>
+        <v>631967561.3200001</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.martinez.com/</t>
+          <t>http://higgins-bradford.biz/</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -5122,38 +5122,38 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Alexander-Warren</t>
+          <t>Benjamin, Austin and Howard</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thomas Hamilton</t>
+          <t>Jennifer Thomas</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Leehaven</t>
+          <t>Arnoldton</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3931</v>
+        <v>288</v>
       </c>
       <c r="G93" t="n">
-        <v>3799915837.6</v>
+        <v>8870748915.43</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>http://www.collins-le.com/</t>
+          <t>https://lawrence.com/</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -5173,63 +5173,63 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Foster Group</t>
+          <t>Murray Inc</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Randy Sweeney</t>
+          <t>Deborah Lang</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Lake Joshuaborough</t>
+          <t>West Tracymouth</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3587</v>
+        <v>7101</v>
       </c>
       <c r="G94" t="n">
-        <v>7430772198.97</v>
+        <v>7835699922.8</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>http://www.knight.net/</t>
+          <t>http://www.landry.com/</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mcdonald PLC</t>
+          <t>Anderson-Johnson</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5239,32 +5239,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Robert Harrison</t>
+          <t>Brittany Gutierrez</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Port Xaviershire</t>
+          <t>Jacksontown</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6664</v>
+        <v>7023</v>
       </c>
       <c r="G95" t="n">
-        <v>9810009483.99</v>
+        <v>4237787412.83</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>http://crawford.com/</t>
+          <t>https://www.fry-smith.org/</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -5275,98 +5275,98 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Chase, Aguirre and Moore</t>
+          <t>Duke-Preston</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Caroline Cook</t>
+          <t>Mark Hunter</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>South Julie</t>
+          <t>Hernandezborough</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3852</v>
+        <v>8558</v>
       </c>
       <c r="G96" t="n">
-        <v>6184680653.33</v>
+        <v>9247898049.35</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>http://anderson-wilson.com/</t>
+          <t>https://cowan.com/</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Murray-Adams</t>
+          <t>Gibbs Inc</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Alexander Vasquez</t>
+          <t>Jamie Francis</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Pattersonberg</t>
+          <t>South John</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3975</v>
+        <v>7621</v>
       </c>
       <c r="G97" t="n">
-        <v>3712370117.46</v>
+        <v>6418422849.35</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://fritz-alvarado.com/</t>
+          <t>https://www.smith.com/</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -5377,47 +5377,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Brady, Hull and Hall</t>
+          <t>Smith LLC</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Samantha Bautista</t>
+          <t>Stanley Carr</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Elizabethmouth</t>
+          <t>Spencechester</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>673</v>
+        <v>1081</v>
       </c>
       <c r="G98" t="n">
-        <v>9015662065.41</v>
+        <v>4681332456.45</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.smith.com/</t>
+          <t>https://www.perry.com/</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -5428,58 +5428,58 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Brown-Wood</t>
+          <t>Hines, Harrison and Shaw</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>James Carney</t>
+          <t>Jonathan Baker</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Anneberg</t>
+          <t>South Tiffany</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6475</v>
+        <v>3602</v>
       </c>
       <c r="G99" t="n">
-        <v>5790634728.07</v>
+        <v>8381389644.96</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.combs-anderson.biz/</t>
+          <t>https://butler.info/</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Blair-Hopkins</t>
+          <t>Andrews Group</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5489,37 +5489,37 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Samantha Schmitt</t>
+          <t>Robin Durham</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Port Debrachester</t>
+          <t>Weeksfurt</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>7780</v>
+        <v>6047</v>
       </c>
       <c r="G100" t="n">
-        <v>7981666784.47</v>
+        <v>7992580461.67</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>http://mcdonald.net/</t>
+          <t>http://thornton.com/</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -5530,47 +5530,47 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jackson, Davis and Blackwell</t>
+          <t>Shannon LLC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Kimberly Spencer</t>
+          <t>Dean Aguilar</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Jasonfurt</t>
+          <t>Amyburgh</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7641</v>
+        <v>4393</v>
       </c>
       <c r="G101" t="n">
-        <v>3305158013.74</v>
+        <v>4282251124</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://gonzales-zamora.com/</t>
+          <t>https://hall.com/</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
